--- a/testFile/case/testCase.xlsx
+++ b/testFile/case/testCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="19" activeTab="22"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="19" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="querySatisfactions" sheetId="1" r:id="rId1"/>
@@ -7284,12 +7284,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
